--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_35.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_35.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_0</t>
+          <t>model_1_35_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998141155200755</v>
+        <v>0.9507602729926117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8276525273031584</v>
+        <v>0.7434600561804721</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8197182246417523</v>
+        <v>0.7490921774563875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998340753216747</v>
+        <v>0.9242089805812257</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007737491102127444</v>
+        <v>0.1726103840725899</v>
       </c>
       <c r="G2" t="n">
-        <v>1.152488343510921</v>
+        <v>1.715483785579008</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6448574571185055</v>
+        <v>0.8974827327670479</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006971261792775572</v>
+        <v>0.2996366762071649</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0489661007120372</v>
+        <v>1.2938925632658</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02781634609744322</v>
+        <v>0.4154640587013393</v>
       </c>
       <c r="L2" t="n">
-        <v>1.011896606715169</v>
+        <v>0.9329501589686627</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02825442574233322</v>
+        <v>0.422007202314194</v>
       </c>
       <c r="N2" t="n">
-        <v>144.328525767867</v>
+        <v>37.51343667899429</v>
       </c>
       <c r="O2" t="n">
-        <v>285.6636983110834</v>
+        <v>74.4780202672201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_1</t>
+          <t>model_1_35_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998336085779943</v>
+        <v>0.9507530998370133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8272165953759891</v>
+        <v>0.7434462975000293</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8193365243438078</v>
+        <v>0.7495766791716232</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998500143580281</v>
+        <v>0.9246403595943224</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006926087362226235</v>
+        <v>0.1726355296454456</v>
       </c>
       <c r="G3" t="n">
-        <v>1.155403422315184</v>
+        <v>1.715575789938481</v>
       </c>
       <c r="H3" t="n">
-        <v>0.646222776951998</v>
+        <v>0.8957496982246733</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006301589286760458</v>
+        <v>0.2979312370316385</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04935630779811809</v>
+        <v>1.291887407566714</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02631746067200678</v>
+        <v>0.4154943196307809</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010649051008365</v>
+        <v>0.9329403912674223</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02673193436978188</v>
+        <v>0.4220379398230245</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5500906248261</v>
+        <v>37.5131453437819</v>
       </c>
       <c r="O3" t="n">
-        <v>285.8852631680425</v>
+        <v>74.47772893200772</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999836090180692</v>
+        <v>0.9507179907204734</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8267348668273971</v>
+        <v>0.7428310992519001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.818948448164207</v>
+        <v>0.7463356694518124</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999792899761192</v>
+        <v>0.9215325769171291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006822789987428543</v>
+        <v>0.1727586050249962</v>
       </c>
       <c r="G4" t="n">
-        <v>1.158624743337775</v>
+        <v>1.719689623456449</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6476109029444803</v>
+        <v>0.9073426020678954</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008701237191769795</v>
+        <v>0.3102177279498192</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06218529800501813</v>
+        <v>1.306289903421071</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02612047087521307</v>
+        <v>0.4156424004177103</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010490228435714</v>
+        <v>0.9328925831087297</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02653184218060622</v>
+        <v>0.4221883527343215</v>
       </c>
       <c r="N4" t="n">
-        <v>144.5801437894183</v>
+        <v>37.51172001112676</v>
       </c>
       <c r="O4" t="n">
-        <v>285.9153163326347</v>
+        <v>74.47630359935258</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998377694390246</v>
+        <v>0.9507060405731834</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8267182719105476</v>
+        <v>0.7427138159707078</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8189592401350705</v>
+        <v>0.7455313200956106</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997935715701336</v>
+        <v>0.9207543326132057</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006752890411024059</v>
+        <v>0.1728004963927759</v>
       </c>
       <c r="G5" t="n">
-        <v>1.15873571362316</v>
+        <v>1.720473897297821</v>
       </c>
       <c r="H5" t="n">
-        <v>0.647572300690456</v>
+        <v>0.910219713076174</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008673011396467653</v>
+        <v>0.3132944847779111</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06202436149604344</v>
+        <v>1.309855866930917</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02598632411678123</v>
+        <v>0.4156927908838159</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010382755902427</v>
+        <v>0.9328763105677391</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02639558274482665</v>
+        <v>0.4222395367998964</v>
       </c>
       <c r="N5" t="n">
-        <v>144.600739499413</v>
+        <v>37.51123509994586</v>
       </c>
       <c r="O5" t="n">
-        <v>285.9359120426294</v>
+        <v>74.47581868817169</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998397110551088</v>
+        <v>0.9507001610936684</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8265765102542517</v>
+        <v>0.7426677999502118</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8189904396934237</v>
+        <v>0.7451230543888709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99979598433857</v>
+        <v>0.9203603715027674</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006672070123164674</v>
+        <v>0.1728211069704318</v>
       </c>
       <c r="G6" t="n">
-        <v>1.159683674471563</v>
+        <v>1.720781606638762</v>
       </c>
       <c r="H6" t="n">
-        <v>0.647460701679281</v>
+        <v>0.9116800558365759</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000857163985496034</v>
+        <v>0.3148519938151543</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06081192974875309</v>
+        <v>1.311645007080317</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02583035060382393</v>
+        <v>0.4157175807810295</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010258492473035</v>
+        <v>0.932868304467974</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02623715280495658</v>
+        <v>0.4222647171132102</v>
       </c>
       <c r="N6" t="n">
-        <v>144.6248203938166</v>
+        <v>37.51099656650374</v>
       </c>
       <c r="O6" t="n">
-        <v>285.9599929370331</v>
+        <v>74.47558015472956</v>
       </c>
     </row>
     <row r="7">
@@ -757,95 +757,95 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999846644796429</v>
+        <v>0.9506851547807279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8261831775593035</v>
+        <v>0.7426630596908677</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8191527577768383</v>
+        <v>0.7438035059133254</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997876735235653</v>
+        <v>0.9191228922988738</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006383451289623707</v>
+        <v>0.1728737117592394</v>
       </c>
       <c r="G7" t="n">
-        <v>1.162313892013812</v>
+        <v>1.720813304774824</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6468800993066504</v>
+        <v>0.9164000042217857</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0008920815563442151</v>
+        <v>0.3197443169211596</v>
       </c>
       <c r="J7" t="n">
-        <v>0.059344641226093</v>
+        <v>1.316924394818583</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02526549285017751</v>
+        <v>0.4157808458301553</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009814733028541</v>
+        <v>0.9328478703397146</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02566339910634082</v>
+        <v>0.4223289785236179</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7132629327923</v>
+        <v>37.51038788177532</v>
       </c>
       <c r="O7" t="n">
-        <v>286.0484354760087</v>
+        <v>74.47497147000114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_6</t>
+          <t>model_1_35_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.99984703019347</v>
+        <v>0.9506066052820805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8261246078208162</v>
+        <v>0.7426098527261747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.819323330886626</v>
+        <v>0.7404288491047639</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999786554824846</v>
+        <v>0.9158843588011031</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006367409034903173</v>
+        <v>0.1731490678579481</v>
       </c>
       <c r="G8" t="n">
-        <v>1.162705548124766</v>
+        <v>1.72116909999272</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6462699691833367</v>
+        <v>0.9284709559521659</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008967817261555246</v>
+        <v>0.3325477258276401</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0579629844698597</v>
+        <v>1.330312288629646</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02523372551745614</v>
+        <v>0.4161118453708667</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009790067617921</v>
+        <v>0.9327409093202799</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02563113146988478</v>
+        <v>0.4226651909762174</v>
       </c>
       <c r="N8" t="n">
-        <v>144.7182954600968</v>
+        <v>37.50720478316965</v>
       </c>
       <c r="O8" t="n">
-        <v>286.0534680033132</v>
+        <v>74.47178837139546</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998387072143413</v>
+        <v>0.9506300098805243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8256926430671817</v>
+        <v>0.7426079203267679</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8187647184865636</v>
+        <v>0.741272197788771</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999701407989888</v>
+        <v>0.9166961639387833</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006713855263110138</v>
+        <v>0.1730670227904393</v>
       </c>
       <c r="G9" t="n">
-        <v>1.165594098421334</v>
+        <v>1.721182021956452</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6482680933481521</v>
+        <v>0.9254543466096388</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001254522891188524</v>
+        <v>0.3293382876244362</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06417585433995457</v>
+        <v>1.327047664603558</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02591110816447289</v>
+        <v>0.4160132483352415</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010322738282156</v>
+        <v>0.9327727794117777</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02631918221645782</v>
+        <v>0.422565041135842</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6123340622522</v>
+        <v>37.50815268907305</v>
       </c>
       <c r="O9" t="n">
-        <v>285.9475066054686</v>
+        <v>74.47273627729886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_9</t>
+          <t>model_1_35_6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998106075253439</v>
+        <v>0.9506582423097918</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8255932479423522</v>
+        <v>0.742596085363476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8180848221755204</v>
+        <v>0.7425592147851687</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995286670940625</v>
+        <v>0.9179246658824809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007883512319352085</v>
+        <v>0.1729680537108903</v>
       </c>
       <c r="G10" t="n">
-        <v>1.166258754078742</v>
+        <v>1.72126116241048</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6507000430301006</v>
+        <v>0.9208507614390572</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001980287147158217</v>
+        <v>0.32448145574717</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07428918405333799</v>
+        <v>1.322006726933096</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02807759305808118</v>
+        <v>0.4158942818925145</v>
       </c>
       <c r="L10" t="n">
-        <v>1.012121118377991</v>
+        <v>0.9328112235707803</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02851978708145008</v>
+        <v>0.4224442010905648</v>
       </c>
       <c r="N10" t="n">
-        <v>144.2911336832131</v>
+        <v>37.50929672433385</v>
       </c>
       <c r="O10" t="n">
-        <v>285.6263062264294</v>
+        <v>74.47388031255967</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_8</t>
+          <t>model_1_35_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998357358986892</v>
+        <v>0.9505479467223407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8255688598347053</v>
+        <v>0.7425404355905074</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8185985091051322</v>
+        <v>0.7388304990169521</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999684559203184</v>
+        <v>0.9143161764814018</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006837537070372799</v>
+        <v>0.1733546960598333</v>
       </c>
       <c r="G11" t="n">
-        <v>1.166421837466873</v>
+        <v>1.721633292698564</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6488626146681582</v>
+        <v>0.9341881615386053</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001325312423034975</v>
+        <v>0.3387474700924037</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06580076040071896</v>
+        <v>1.336528336015017</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02614868461390132</v>
+        <v>0.4163588549074383</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010512902483889</v>
+        <v>0.9326610338346767</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02656050025747543</v>
+        <v>0.4229160906660711</v>
       </c>
       <c r="N11" t="n">
-        <v>144.5758255652321</v>
+        <v>37.50483103433992</v>
       </c>
       <c r="O11" t="n">
-        <v>285.9109981084485</v>
+        <v>74.46941462256575</v>
       </c>
     </row>
   </sheetData>
